--- a/output/fit_clients/fit_round_127.xlsx
+++ b/output/fit_clients/fit_round_127.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1930583530.761194</v>
+        <v>1657781586.508351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09436635837081335</v>
+        <v>0.06981487582178353</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04243794815284364</v>
+        <v>0.02997002699654204</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>965291751.6159976</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2651086773.271122</v>
+        <v>1735501278.965591</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1734350523976086</v>
+        <v>0.155929595335631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0356288827544585</v>
+        <v>0.03380667404862796</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1325543527.466825</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4818463383.41873</v>
+        <v>4753379931.512062</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1565993990372858</v>
+        <v>0.1664361191163197</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03375801322602322</v>
+        <v>0.03206608232013378</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2409231763.820954</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3712224142.8269</v>
+        <v>2998600388.850066</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09502282381315205</v>
+        <v>0.06903965566023054</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03188800970800503</v>
+        <v>0.0318464678531177</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>48</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1856112094.10647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2147120581.134453</v>
+        <v>2315008190.520618</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1052867545818043</v>
+        <v>0.1084168126702412</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0544245342556761</v>
+        <v>0.04955544091832438</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1073560304.189085</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2220351466.64099</v>
+        <v>2636802288.231277</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08676464320509965</v>
+        <v>0.07891729531879635</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03726334845195015</v>
+        <v>0.0391216383212422</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>37</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1110175773.203871</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3943424141.302342</v>
+        <v>2797864486.228631</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1825532198989437</v>
+        <v>0.1392599175708937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03267860523288962</v>
+        <v>0.02523362583292014</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>41</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1971712224.558547</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1521957524.823898</v>
+        <v>1556225540.218666</v>
       </c>
       <c r="F9" t="n">
-        <v>0.188155307863851</v>
+        <v>0.1796245645102693</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03384551861640429</v>
+        <v>0.0369391936407357</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>760978855.3131261</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4203445101.433799</v>
+        <v>5068107878.561667</v>
       </c>
       <c r="F10" t="n">
-        <v>0.137109944913173</v>
+        <v>0.139044554618011</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04478664937320593</v>
+        <v>0.03520936596921686</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>54</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2101722588.288961</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2715421846.696588</v>
+        <v>2827280284.320718</v>
       </c>
       <c r="F11" t="n">
-        <v>0.180185264651814</v>
+        <v>0.1569380869508026</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04530284571736942</v>
+        <v>0.0371664450425319</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>53</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1357710846.418896</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3241271370.960501</v>
+        <v>3288419607.422974</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1654774568473866</v>
+        <v>0.1974254857391995</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03866773749146978</v>
+        <v>0.04946123023711628</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1620635725.54154</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3941443104.93015</v>
+        <v>5121249679.413495</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1016472305445402</v>
+        <v>0.07968486560411518</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02967014538538723</v>
+        <v>0.02023404461391498</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>43</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1970721610.314341</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3152341106.533278</v>
+        <v>2597796602.853114</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1569597375883999</v>
+        <v>0.1448190685599236</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03901776730092286</v>
+        <v>0.02905335573585309</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>41</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1576170576.622757</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1807061317.833311</v>
+        <v>1698052099.930003</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1022403293888018</v>
+        <v>0.08255351069923161</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03502725113535386</v>
+        <v>0.04307941824875024</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>903530813.9819704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2083155216.364536</v>
+        <v>2231198642.252007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09998442582541071</v>
+        <v>0.07734467588491262</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03744890203066321</v>
+        <v>0.04675462965032239</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>20</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1041577676.199452</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4942288178.438163</v>
+        <v>3756458712.74519</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1368745605548852</v>
+        <v>0.1305090783622056</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04847234894939023</v>
+        <v>0.03322572224975225</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>37</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2471144077.205084</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2918914733.587328</v>
+        <v>3792474310.669855</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1623846774021464</v>
+        <v>0.143261586292177</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02406508619310747</v>
+        <v>0.02552518659419643</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>41</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1459457402.835586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>864894805.1436186</v>
+        <v>1181351326.122081</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1361629363712146</v>
+        <v>0.1786006687475601</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02258872236229634</v>
+        <v>0.02671694481430505</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>432447398.9066944</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2762705885.240173</v>
+        <v>2809651578.201331</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1329045721604175</v>
+        <v>0.1265046874692417</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02498149993765608</v>
+        <v>0.020764245640248</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>20</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1381352887.684847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1797397644.187241</v>
+        <v>2225176149.00698</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07383866755000605</v>
+        <v>0.07862594701388315</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03802436431912634</v>
+        <v>0.03678864286174167</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>898698877.3341601</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3453484668.81379</v>
+        <v>3850921746.884363</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1139684657675648</v>
+        <v>0.1223578045039903</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05260232524667684</v>
+        <v>0.05320320797383523</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>35</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1726742368.731393</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1305089323.005523</v>
+        <v>953841785.9233493</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1504312742589055</v>
+        <v>0.1174579957621674</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04238514148821019</v>
+        <v>0.05326482562828584</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>652544680.2321213</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4040067953.129433</v>
+        <v>3309555653.866547</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1414107352312267</v>
+        <v>0.09454502858761854</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02780409377630545</v>
+        <v>0.02821105327483251</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>37</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2020033941.814772</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>955270091.9732356</v>
+        <v>1457626518.995919</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08790484082340354</v>
+        <v>0.08745896027181631</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02090030425989029</v>
+        <v>0.03032541045684882</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>477635120.2128619</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1014867352.65955</v>
+        <v>980347869.266018</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09047088507317175</v>
+        <v>0.09042049735618191</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03180301839203935</v>
+        <v>0.02520838020326215</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>507433651.9670681</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3326671419.600391</v>
+        <v>4426503397.470951</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1080124099692627</v>
+        <v>0.1434416889020353</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01836012587235196</v>
+        <v>0.02136124724757017</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>29</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1663335753.373354</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2834230700.451937</v>
+        <v>3040181696.00877</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1389012073625545</v>
+        <v>0.106976489201977</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03633649933951755</v>
+        <v>0.04365948215696669</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>40</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1417115347.006847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5477494420.065215</v>
+        <v>3777131319.619223</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1188202932037934</v>
+        <v>0.1028147561403446</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04256937291793357</v>
+        <v>0.03495396600614111</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>57</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2738747124.458135</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2036508739.887696</v>
+        <v>1947312558.55489</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09997442981866295</v>
+        <v>0.09305916762318361</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03977381952681675</v>
+        <v>0.03376352767165897</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1018254411.48881</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1178883205.397324</v>
+        <v>1494735555.166479</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07648153191970219</v>
+        <v>0.1016602668070647</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03292306020684066</v>
+        <v>0.04783005953220675</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>589441559.0904191</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1673244086.188041</v>
+        <v>1536127580.957784</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1003632531074375</v>
+        <v>0.09714585877352171</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0317200435881211</v>
+        <v>0.02683567621052794</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>836622147.2717144</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2738481782.734098</v>
+        <v>2645047699.82593</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1457623558799331</v>
+        <v>0.16500762017689</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05511296481910891</v>
+        <v>0.05374283036157734</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>39</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1369240909.204286</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1183838302.846371</v>
+        <v>1088720541.831994</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09873672244518761</v>
+        <v>0.09300665369351338</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02718328988201664</v>
+        <v>0.01897556123208737</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>591919159.1228837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1078035714.649469</v>
+        <v>826260468.9702349</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09375680885823715</v>
+        <v>0.07626967411126939</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0406413722804872</v>
+        <v>0.03566855333900083</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>539017858.7441279</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2573370543.503654</v>
+        <v>2462702416.668282</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1102263611331657</v>
+        <v>0.1666602878896658</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02177948763802139</v>
+        <v>0.02091053443773379</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>32</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1286685287.789915</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2742259501.444658</v>
+        <v>1818197040.280667</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09464120404964624</v>
+        <v>0.1000024113381497</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03801212013897416</v>
+        <v>0.02660489931046045</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>32</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1371129880.080902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1407635365.008473</v>
+        <v>1885447689.809969</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09285783301771532</v>
+        <v>0.1091058464026881</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03408983091671734</v>
+        <v>0.02598344603461182</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>703817744.7559755</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1869489191.738652</v>
+        <v>2174473893.760497</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1544829856104456</v>
+        <v>0.1824344034843066</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03292371354274692</v>
+        <v>0.02545415593099816</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>934744610.1620015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1237437637.566224</v>
+        <v>1345308651.896171</v>
       </c>
       <c r="F40" t="n">
-        <v>0.127031494047093</v>
+        <v>0.1153198962692463</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0489325849465948</v>
+        <v>0.03925492416585025</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>618718850.658644</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2809223660.558331</v>
+        <v>2633295384.245184</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1446621722817661</v>
+        <v>0.1258951543552004</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03856175112085364</v>
+        <v>0.03966277453795433</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>32</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1404611825.239189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3215336640.711884</v>
+        <v>3438240434.807702</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09206745858316769</v>
+        <v>0.1130706823182514</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04199920654922407</v>
+        <v>0.04298759312609267</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>42</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1607668295.556998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2812282809.361519</v>
+        <v>2008375134.850693</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1853586611898936</v>
+        <v>0.1687564130371349</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0257259078760547</v>
+        <v>0.02332395367536178</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>40</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1406141421.888531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1426388108.997096</v>
+        <v>1715720590.422019</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08695097106632972</v>
+        <v>0.09812294691770121</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02772970794404116</v>
+        <v>0.02327604075806514</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>713194046.3297095</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2385901416.413908</v>
+        <v>2518543154.0612</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1357253818037885</v>
+        <v>0.1698303597132432</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04896152659958854</v>
+        <v>0.04042498159413977</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1192950737.886499</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5531960857.214129</v>
+        <v>4266652904.689205</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1376531321832274</v>
+        <v>0.1626860303420828</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05003384866503063</v>
+        <v>0.05347256185212695</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2765980485.828271</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4009869714.551593</v>
+        <v>4900397892.237384</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1757383424331093</v>
+        <v>0.1226070885378953</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05958291408961325</v>
+        <v>0.03853152124835781</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>34</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2004934856.91435</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4098515818.19734</v>
+        <v>3044029805.816723</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1046641942040911</v>
+        <v>0.09732130516020904</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02849752556362562</v>
+        <v>0.02439829969626023</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>43</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2049257937.720682</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1755953331.460714</v>
+        <v>1423099983.92714</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1889671759895687</v>
+        <v>0.155802017279787</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02702573421110457</v>
+        <v>0.03490272812773091</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>877976657.9171268</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3025054062.674994</v>
+        <v>2575975768.043546</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1205352950941379</v>
+        <v>0.1356630670550118</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03540616012275921</v>
+        <v>0.03283875205618011</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>43</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1512527089.325427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1210402128.478435</v>
+        <v>1076310076.334936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1455726226214917</v>
+        <v>0.1782552856613699</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03834902532045288</v>
+        <v>0.05086747631160079</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>605201114.0548677</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5216481056.305243</v>
+        <v>3672515809.934893</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09267174287525054</v>
+        <v>0.1247896109584039</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05200406674863055</v>
+        <v>0.04873413440190209</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>52</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2608240512.986343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2861401533.147127</v>
+        <v>2608041682.159507</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1534552959107983</v>
+        <v>0.1815335230978249</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03392389025216023</v>
+        <v>0.02316450171393453</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>36</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1430700808.554477</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4841436156.583784</v>
+        <v>3000631604.909587</v>
       </c>
       <c r="F54" t="n">
-        <v>0.137599067623593</v>
+        <v>0.1484810191888633</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0343561558996649</v>
+        <v>0.03842482010062701</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>44</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2420718208.376366</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3317649618.802091</v>
+        <v>3501717489.491586</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1578497616742524</v>
+        <v>0.1998135538189552</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02941647610507215</v>
+        <v>0.02107742678173063</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>33</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1658824754.131857</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1857205282.271408</v>
+        <v>1787756704.227123</v>
       </c>
       <c r="F56" t="n">
-        <v>0.109940232184612</v>
+        <v>0.154914264250446</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04291823799619694</v>
+        <v>0.04536580140646328</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>928602630.4121343</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4140315350.215625</v>
+        <v>4355781424.422737</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1384470529128752</v>
+        <v>0.1423706139538876</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02627943855449056</v>
+        <v>0.02232900531367837</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>40</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2070157775.19964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1569675621.885258</v>
+        <v>1220359726.023862</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1388703818497137</v>
+        <v>0.1988143831100312</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03852667899042819</v>
+        <v>0.02441292004147011</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>784837835.6650816</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3891054345.331536</v>
+        <v>4341596121.325337</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09886848408412757</v>
+        <v>0.0899880361807706</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03842624274714326</v>
+        <v>0.04067277829920728</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>35</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1945527153.7932</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2652968511.851548</v>
+        <v>3030434917.332293</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1784477228275758</v>
+        <v>0.1636188753807165</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03321507007849945</v>
+        <v>0.02859420128341694</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>39</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1326484289.835376</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2485821808.715356</v>
+        <v>3338328939.039271</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1182895005233601</v>
+        <v>0.1212209113215206</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02127379277199875</v>
+        <v>0.02124122599026362</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>43</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1242910933.266251</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1688922161.782495</v>
+        <v>2100959825.546646</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1501581137632673</v>
+        <v>0.128432535569759</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03609485565138604</v>
+        <v>0.04527851348429799</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>844461092.2560942</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3761215128.101655</v>
+        <v>5484038529.122707</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1008858320105808</v>
+        <v>0.0743569253593561</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04547671529901502</v>
+        <v>0.04291280042435789</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1880607637.034255</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5503890362.76301</v>
+        <v>5427156486.341499</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1160250642766051</v>
+        <v>0.1165644492182943</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0223472507011009</v>
+        <v>0.03419973594493016</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>40</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2751945322.965573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3857825271.923621</v>
+        <v>5025295092.368449</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1176265244391571</v>
+        <v>0.1118617451236171</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0285194291864733</v>
+        <v>0.02165263788286076</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>46</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1928912662.969724</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3513746631.492033</v>
+        <v>4933303963.725607</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1531316263012856</v>
+        <v>0.13308542550445</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03634732430438706</v>
+        <v>0.03622687127124418</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>37</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1756873263.204469</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2674038794.493372</v>
+        <v>2601925089.579208</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07525062464141913</v>
+        <v>0.07574406788474106</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03304681723302952</v>
+        <v>0.05081811744258367</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>39</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1337019443.06077</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5821223142.883894</v>
+        <v>4473324565.687498</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1132338161339304</v>
+        <v>0.1296748433142037</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04434759297858522</v>
+        <v>0.04392871928292626</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>40</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2910611677.547537</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1705223877.343378</v>
+        <v>2424743857.381007</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1835092097166318</v>
+        <v>0.1757951307468709</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04804358366335191</v>
+        <v>0.05150628947122046</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>852611905.4449784</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2445296887.37966</v>
+        <v>3703084118.83519</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0882967978539409</v>
+        <v>0.08542764373839049</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03733023052227753</v>
+        <v>0.03625148800807702</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1222648384.52165</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5328298603.332561</v>
+        <v>5244802629.355686</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1704706349082079</v>
+        <v>0.1793373374120497</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0341612081136599</v>
+        <v>0.03132304001198014</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>46</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2664149431.806512</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1490742596.433795</v>
+        <v>2014424952.965471</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08857330827951686</v>
+        <v>0.07398480180228878</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04338427381773894</v>
+        <v>0.03374893504271829</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>745371326.6579018</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2178266856.128666</v>
+        <v>3320884238.107577</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0831798074637293</v>
+        <v>0.1110154528765608</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03184462600896733</v>
+        <v>0.04333077765904458</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>48</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1089133499.225298</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3572774724.47962</v>
+        <v>3665846647.618963</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1566178787035226</v>
+        <v>0.1602686533401577</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02678582934585013</v>
+        <v>0.02549835248572812</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>43</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1786387378.040972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2033433114.285753</v>
+        <v>2313851495.692143</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1164418978964117</v>
+        <v>0.1202497173067387</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03234714323833236</v>
+        <v>0.02501076960122954</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1016716518.141352</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3504594095.767292</v>
+        <v>3516968086.771902</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1086198888230171</v>
+        <v>0.1131924393256281</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03007765857513765</v>
+        <v>0.03254513681186975</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1752297011.730716</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1738222164.365233</v>
+        <v>1640784786.885086</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1556351292482078</v>
+        <v>0.1458410875180755</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02512874553334474</v>
+        <v>0.02017779175015241</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>869111104.9775778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3665763966.783112</v>
+        <v>3358826274.496398</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08796600507586164</v>
+        <v>0.1371347172441215</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04263476463102198</v>
+        <v>0.04547647435339899</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>45</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1832881973.002096</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1222681396.968019</v>
+        <v>1312635676.106125</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1585952970115988</v>
+        <v>0.1083516494517171</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03695407508084367</v>
+        <v>0.03283611342447933</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>611340684.1041583</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5195016229.985916</v>
+        <v>5488643100.380702</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08498663584744297</v>
+        <v>0.0675618421844242</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02698674167891101</v>
+        <v>0.03403098956315218</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>26</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2597508173.832854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4227942877.364622</v>
+        <v>3202498617.625151</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09456379815693236</v>
+        <v>0.1013482434908248</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03243193971149697</v>
+        <v>0.02054679372079854</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>30</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2113971410.323659</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4989426980.368172</v>
+        <v>5688668434.344152</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1322523580143124</v>
+        <v>0.1715463893832478</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01949715602590182</v>
+        <v>0.01846815072924833</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2494713474.692028</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1638227023.186357</v>
+        <v>2420223715.042478</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1442777589231802</v>
+        <v>0.1026298764879901</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04188319643742362</v>
+        <v>0.04505299530072539</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>819113451.8471032</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2562406831.517744</v>
+        <v>1993938398.671214</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08510376977079434</v>
+        <v>0.07471624048448794</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03780328340935769</v>
+        <v>0.04094401510191122</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1281203338.373949</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3274714927.08972</v>
+        <v>2478832063.241634</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1468989972250382</v>
+        <v>0.1278876178791966</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03821766049349811</v>
+        <v>0.04979691926892848</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>48</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1637357553.971423</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2250891685.280527</v>
+        <v>2172872763.439863</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1284701614949867</v>
+        <v>0.1275752849663133</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0206862367871623</v>
+        <v>0.02573302471145447</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1125445905.080273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>991263837.2877886</v>
+        <v>1452859410.381845</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1752334815051</v>
+        <v>0.1815365989547</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04417885742637497</v>
+        <v>0.03328830637811327</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>495631920.6589154</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3121883263.184464</v>
+        <v>2938089175.696779</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1772444390737866</v>
+        <v>0.1499056166465347</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03656142128407222</v>
+        <v>0.02501860348615923</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>50</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1560941674.041865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2866389195.115479</v>
+        <v>2402520710.184891</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1090662702957259</v>
+        <v>0.1156499120838262</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0394847441874613</v>
+        <v>0.03968911156402723</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>45</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1433194645.411286</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1319613939.245926</v>
+        <v>1356851296.857406</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1265071485902669</v>
+        <v>0.1275304529544444</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03589363746434997</v>
+        <v>0.04808110570478882</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>659806915.269366</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1323302923.368606</v>
+        <v>1532875422.316704</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1837157738728983</v>
+        <v>0.1684860616301503</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04449942082208396</v>
+        <v>0.03783353634854817</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>661651524.1053157</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2428201979.169048</v>
+        <v>2656492384.270003</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09367168593578359</v>
+        <v>0.08773017726250328</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0393484068684724</v>
+        <v>0.04559186373780825</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>30</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1214100968.051196</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4988934342.656882</v>
+        <v>4222677789.44065</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1239145635003441</v>
+        <v>0.1188986545408041</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03533904789541176</v>
+        <v>0.04125129764817108</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2494467107.965685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2162903697.177426</v>
+        <v>1774256815.517668</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1044716892712677</v>
+        <v>0.1128931729352075</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0358259266565</v>
+        <v>0.03925205985009949</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1081451868.104044</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2529077491.676749</v>
+        <v>2117120735.183479</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1182973144475483</v>
+        <v>0.09878696590730006</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04329510996339747</v>
+        <v>0.0461187277928734</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>31</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1264538779.770717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1499798160.367456</v>
+        <v>1583958459.431354</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1188149718443733</v>
+        <v>0.08608974066218199</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03641061021972088</v>
+        <v>0.04001909121921594</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>749899120.513695</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5002959785.973212</v>
+        <v>4502239547.22446</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1204128393964042</v>
+        <v>0.1674456871276312</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01822905417183445</v>
+        <v>0.02255762381976242</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>43</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2501480029.970778</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3445339638.922482</v>
+        <v>2565254225.384413</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1116747135725546</v>
+        <v>0.09452467444784489</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02056066375043839</v>
+        <v>0.02254049751451411</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>34</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1722669834.302336</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2827186082.217923</v>
+        <v>2491194594.53777</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1345563024679581</v>
+        <v>0.140799248405704</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02814341980337263</v>
+        <v>0.03523259977864564</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>39</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1413593014.47264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3201495075.470615</v>
+        <v>4255293388.729351</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1747064439710584</v>
+        <v>0.1730787529589154</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02438522917563859</v>
+        <v>0.01999067908989116</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>39</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1600747544.632314</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2499921065.974602</v>
+        <v>2504949519.316844</v>
       </c>
       <c r="F101" t="n">
-        <v>0.183796407167259</v>
+        <v>0.1990141888273416</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0408950992970883</v>
+        <v>0.05792000793798383</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>53</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1249960555.893412</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_127.xlsx
+++ b/output/fit_clients/fit_round_127.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1657781586.508351</v>
+        <v>2016880100.65397</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06981487582178353</v>
+        <v>0.1019713985406197</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02997002699654204</v>
+        <v>0.04318402205086646</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1735501278.965591</v>
+        <v>2261762888.20663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.155929595335631</v>
+        <v>0.1734781910881443</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03380667404862796</v>
+        <v>0.04999344474867457</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4753379931.512062</v>
+        <v>4534283419.011607</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1664361191163197</v>
+        <v>0.118581714092612</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03206608232013378</v>
+        <v>0.0383771108487115</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2998600388.850066</v>
+        <v>2962581540.273746</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06903965566023054</v>
+        <v>0.1000789870125769</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0318464678531177</v>
+        <v>0.0418041189516559</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2315008190.520618</v>
+        <v>1751674104.966542</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1084168126702412</v>
+        <v>0.09430425477943076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04955544091832438</v>
+        <v>0.05352865082170532</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2636802288.231277</v>
+        <v>2399691758.816064</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07891729531879635</v>
+        <v>0.06877359620756344</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0391216383212422</v>
+        <v>0.04689701411156093</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2797864486.228631</v>
+        <v>3821688529.389897</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1392599175708937</v>
+        <v>0.1959813047169542</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02523362583292014</v>
+        <v>0.02183737315796214</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1556225540.218666</v>
+        <v>2004127467.727487</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1796245645102693</v>
+        <v>0.165469715800744</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0369391936407357</v>
+        <v>0.03457498133348594</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5068107878.561667</v>
+        <v>5618517798.829251</v>
       </c>
       <c r="F10" t="n">
-        <v>0.139044554618011</v>
+        <v>0.1941712322543626</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03520936596921686</v>
+        <v>0.03984092359394779</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2827280284.320718</v>
+        <v>2690595831.313702</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1569380869508026</v>
+        <v>0.1260236724519625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0371664450425319</v>
+        <v>0.04213898511270634</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3288419607.422974</v>
+        <v>3020482785.27835</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1974254857391995</v>
+        <v>0.1502145347357248</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04946123023711628</v>
+        <v>0.0522094844238186</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5121249679.413495</v>
+        <v>3675620830.92226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07968486560411518</v>
+        <v>0.09364097299768612</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02023404461391498</v>
+        <v>0.02726342749755831</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2597796602.853114</v>
+        <v>2616278910.521001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1448190685599236</v>
+        <v>0.1388503102040356</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02905335573585309</v>
+        <v>0.03176910017404622</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1698052099.930003</v>
+        <v>1111575419.1651</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08255351069923161</v>
+        <v>0.08108589350068994</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04307941824875024</v>
+        <v>0.03901530327536326</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2231198642.252007</v>
+        <v>2889020342.839619</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07734467588491262</v>
+        <v>0.116007279539115</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04675462965032239</v>
+        <v>0.04081392884650085</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3756458712.74519</v>
+        <v>3675259137.071118</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1305090783622056</v>
+        <v>0.1439398478932676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03322572224975225</v>
+        <v>0.03897985632103564</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3792474310.669855</v>
+        <v>3832799115.309631</v>
       </c>
       <c r="F18" t="n">
-        <v>0.143261586292177</v>
+        <v>0.1640826088967042</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02552518659419643</v>
+        <v>0.02603556841075129</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1181351326.122081</v>
+        <v>1280696828.7758</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1786006687475601</v>
+        <v>0.1168810253118012</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02671694481430505</v>
+        <v>0.02158654177381951</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2809651578.201331</v>
+        <v>1858794279.392167</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1265046874692417</v>
+        <v>0.1400126497605275</v>
       </c>
       <c r="G20" t="n">
-        <v>0.020764245640248</v>
+        <v>0.02319930796612603</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2225176149.00698</v>
+        <v>2562931702.03941</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07862594701388315</v>
+        <v>0.09919074079404526</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03678864286174167</v>
+        <v>0.03733861613444037</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3850921746.884363</v>
+        <v>3417585777.449852</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1223578045039903</v>
+        <v>0.1259381913392715</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05320320797383523</v>
+        <v>0.05108816867587219</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>953841785.9233493</v>
+        <v>1114282183.242396</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1174579957621674</v>
+        <v>0.1252339206392447</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05326482562828584</v>
+        <v>0.04250438105577786</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3309555653.866547</v>
+        <v>2543238919.222933</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09454502858761854</v>
+        <v>0.1319524178775361</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02821105327483251</v>
+        <v>0.03341919617324642</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1457626518.995919</v>
+        <v>1194113497.036418</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08745896027181631</v>
+        <v>0.104959651386965</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03032541045684882</v>
+        <v>0.02869433166787855</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>980347869.266018</v>
+        <v>1416878092.714812</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09042049735618191</v>
+        <v>0.1119640549130538</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02520838020326215</v>
+        <v>0.03218685871606544</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4426503397.470951</v>
+        <v>3354077567.074345</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1434416889020353</v>
+        <v>0.1122958482221292</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02136124724757017</v>
+        <v>0.02667452346978164</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3040181696.00877</v>
+        <v>3595300757.97021</v>
       </c>
       <c r="F28" t="n">
-        <v>0.106976489201977</v>
+        <v>0.09314343263183379</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04365948215696669</v>
+        <v>0.04280307707823996</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3777131319.619223</v>
+        <v>5182763626.688967</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1028147561403446</v>
+        <v>0.1058807995020328</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03495396600614111</v>
+        <v>0.03535428085504499</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1947312558.55489</v>
+        <v>2257683333.35104</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09305916762318361</v>
+        <v>0.09086385909683307</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03376352767165897</v>
+        <v>0.03739361688275414</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1494735555.166479</v>
+        <v>1329030120.843416</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1016602668070647</v>
+        <v>0.08992563101649985</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04783005953220675</v>
+        <v>0.04250332165455232</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1536127580.957784</v>
+        <v>1383742793.515169</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09714585877352171</v>
+        <v>0.09938507818968585</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02683567621052794</v>
+        <v>0.03291148952282587</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2645047699.82593</v>
+        <v>2414102917.284461</v>
       </c>
       <c r="F33" t="n">
-        <v>0.16500762017689</v>
+        <v>0.1398228335090984</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05374283036157734</v>
+        <v>0.048139806147737</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1088720541.831994</v>
+        <v>1086449507.648646</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09300665369351338</v>
+        <v>0.09578963892873665</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01897556123208737</v>
+        <v>0.02196248288743322</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>826260468.9702349</v>
+        <v>1068454113.731138</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07626967411126939</v>
+        <v>0.08966799374640283</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03566855333900083</v>
+        <v>0.04306355417361649</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2462702416.668282</v>
+        <v>2179628422.877953</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1666602878896658</v>
+        <v>0.1612921247209948</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02091053443773379</v>
+        <v>0.02392074423997558</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1818197040.280667</v>
+        <v>2660505371.892521</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1000024113381497</v>
+        <v>0.1044965879026282</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02660489931046045</v>
+        <v>0.02866478605169018</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1885447689.809969</v>
+        <v>1949053927.96306</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1091058464026881</v>
+        <v>0.100491297899361</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02598344603461182</v>
+        <v>0.02569122679561063</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2174473893.760497</v>
+        <v>1810225204.74248</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1824344034843066</v>
+        <v>0.1479347315440011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02545415593099816</v>
+        <v>0.02563626390318028</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1345308651.896171</v>
+        <v>1653099261.06534</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1153198962692463</v>
+        <v>0.123582627918427</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03925492416585025</v>
+        <v>0.05249244682120522</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2633295384.245184</v>
+        <v>2872124099.715211</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1258951543552004</v>
+        <v>0.1199057910621579</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03966277453795433</v>
+        <v>0.03141936742765666</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3438240434.807702</v>
+        <v>3182828710.79181</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1130706823182514</v>
+        <v>0.1249874445477083</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04298759312609267</v>
+        <v>0.03348723922282813</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2008375134.850693</v>
+        <v>2034858077.798133</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1687564130371349</v>
+        <v>0.1931144741154858</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02332395367536178</v>
+        <v>0.02515573367224466</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1715720590.422019</v>
+        <v>1656857737.931197</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09812294691770121</v>
+        <v>0.08039886783852988</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02327604075806514</v>
+        <v>0.0254038454120278</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2518543154.0612</v>
+        <v>2028448252.709497</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1698303597132432</v>
+        <v>0.1174015072390109</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04042498159413977</v>
+        <v>0.05135383935076794</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4266652904.689205</v>
+        <v>5269200487.700622</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1626860303420828</v>
+        <v>0.166941676056512</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05347256185212695</v>
+        <v>0.0577178720494007</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4900397892.237384</v>
+        <v>4761808171.709687</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1226070885378953</v>
+        <v>0.1621726388893851</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03853152124835781</v>
+        <v>0.04519880445550107</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3044029805.816723</v>
+        <v>3205081694.199452</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09732130516020904</v>
+        <v>0.07183988339703666</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02439829969626023</v>
+        <v>0.02922128197907767</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1423099983.92714</v>
+        <v>1739904482.597931</v>
       </c>
       <c r="F49" t="n">
-        <v>0.155802017279787</v>
+        <v>0.1939266953971753</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03490272812773091</v>
+        <v>0.03808249783071998</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2575975768.043546</v>
+        <v>3323172492.213104</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1356630670550118</v>
+        <v>0.1124701467413524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03283875205618011</v>
+        <v>0.04757196474323585</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1076310076.334936</v>
+        <v>935545446.4983196</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1782552856613699</v>
+        <v>0.1814167217302415</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05086747631160079</v>
+        <v>0.05085480474811151</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3672515809.934893</v>
+        <v>4681893717.455069</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1247896109584039</v>
+        <v>0.1161068783519003</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04873413440190209</v>
+        <v>0.0413010222968925</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2608041682.159507</v>
+        <v>3479240452.744342</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1815335230978249</v>
+        <v>0.1857018044396117</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02316450171393453</v>
+        <v>0.022438715655414</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3000631604.909587</v>
+        <v>3429758399.011909</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1484810191888633</v>
+        <v>0.1329078706507124</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03842482010062701</v>
+        <v>0.03766413740798669</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3501717489.491586</v>
+        <v>3973894432.682127</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1998135538189552</v>
+        <v>0.2201886518088807</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02107742678173063</v>
+        <v>0.02168415006298079</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1787756704.227123</v>
+        <v>1263912062.284558</v>
       </c>
       <c r="F56" t="n">
-        <v>0.154914264250446</v>
+        <v>0.1085271051349456</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04536580140646328</v>
+        <v>0.04521619070383798</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4355781424.422737</v>
+        <v>4301732566.49959</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1423706139538876</v>
+        <v>0.1115351289560621</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02232900531367837</v>
+        <v>0.0227293477090792</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1220359726.023862</v>
+        <v>1636028718.702887</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1988143831100312</v>
+        <v>0.1920231828617377</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02441292004147011</v>
+        <v>0.02760391305466312</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4341596121.325337</v>
+        <v>4295419993.278196</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0899880361807706</v>
+        <v>0.08130086502498726</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04067277829920728</v>
+        <v>0.03959885401277224</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3030434917.332293</v>
+        <v>2657258504.566833</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1636188753807165</v>
+        <v>0.1747880335502824</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02859420128341694</v>
+        <v>0.03054409998957233</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3338328939.039271</v>
+        <v>2323010728.608711</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1212209113215206</v>
+        <v>0.1739092186321614</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02124122599026362</v>
+        <v>0.02935553709318765</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2100959825.546646</v>
+        <v>1927662243.148015</v>
       </c>
       <c r="F62" t="n">
-        <v>0.128432535569759</v>
+        <v>0.151539671965791</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04527851348429799</v>
+        <v>0.04237276862626381</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5484038529.122707</v>
+        <v>5162567630.763163</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0743569253593561</v>
+        <v>0.07434341837892429</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04291280042435789</v>
+        <v>0.0314819687670347</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5427156486.341499</v>
+        <v>5421274979.651373</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1165644492182943</v>
+        <v>0.1170950129939754</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03419973594493016</v>
+        <v>0.03564623644950261</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5025295092.368449</v>
+        <v>4201878679.542616</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1118617451236171</v>
+        <v>0.1185713259767656</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02165263788286076</v>
+        <v>0.02901401196166422</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4933303963.725607</v>
+        <v>3887614583.141942</v>
       </c>
       <c r="F66" t="n">
-        <v>0.13308542550445</v>
+        <v>0.1410116839649608</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03622687127124418</v>
+        <v>0.05059620020107904</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2601925089.579208</v>
+        <v>2887051014.890862</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07574406788474106</v>
+        <v>0.07249328913971495</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05081811744258367</v>
+        <v>0.03958693396882096</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4473324565.687498</v>
+        <v>5202420498.882445</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1296748433142037</v>
+        <v>0.1172851790508967</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04392871928292626</v>
+        <v>0.03175205466032227</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2424743857.381007</v>
+        <v>2222236184.305295</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1757951307468709</v>
+        <v>0.1299234118188274</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05150628947122046</v>
+        <v>0.05247145220896723</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3703084118.83519</v>
+        <v>3233030929.344126</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08542764373839049</v>
+        <v>0.08653244249361346</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03625148800807702</v>
+        <v>0.04866768476559769</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5244802629.355686</v>
+        <v>4921648430.470678</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1793373374120497</v>
+        <v>0.1162909484210611</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03132304001198014</v>
+        <v>0.02915265301254774</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2014424952.965471</v>
+        <v>2013989945.886972</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07398480180228878</v>
+        <v>0.1031963949792399</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03374893504271829</v>
+        <v>0.04029387811332126</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3320884238.107577</v>
+        <v>2180755433.640138</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1110154528765608</v>
+        <v>0.09602268101428867</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04333077765904458</v>
+        <v>0.03740029586094498</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3665846647.618963</v>
+        <v>2983866601.821468</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1602686533401577</v>
+        <v>0.1682519206078314</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02549835248572812</v>
+        <v>0.02401834426592868</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2313851495.692143</v>
+        <v>2055194053.800312</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1202497173067387</v>
+        <v>0.112764577522793</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02501076960122954</v>
+        <v>0.0307255056462027</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3516968086.771902</v>
+        <v>3576755911.814331</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1131924393256281</v>
+        <v>0.09657738837860691</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03254513681186975</v>
+        <v>0.02556698447991455</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1640784786.885086</v>
+        <v>1696980277.935922</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1458410875180755</v>
+        <v>0.1819152753999053</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02017779175015241</v>
+        <v>0.02943248580011823</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3358826274.496398</v>
+        <v>4367446653.615292</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1371347172441215</v>
+        <v>0.1131906883882946</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04547647435339899</v>
+        <v>0.04883490742634894</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1312635676.106125</v>
+        <v>1697242544.825504</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1083516494517171</v>
+        <v>0.145616501580973</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03283611342447933</v>
+        <v>0.02955254955389785</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5488643100.380702</v>
+        <v>4444332315.981649</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0675618421844242</v>
+        <v>0.07506835541371841</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03403098956315218</v>
+        <v>0.02351247937646699</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3202498617.625151</v>
+        <v>4868403588.912944</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1013482434908248</v>
+        <v>0.1289685029434492</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02054679372079854</v>
+        <v>0.03310611226444284</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5688668434.344152</v>
+        <v>5683669110.245531</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1715463893832478</v>
+        <v>0.1651693092893891</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01846815072924833</v>
+        <v>0.02351148870162257</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2420223715.042478</v>
+        <v>2416293621.280412</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1026298764879901</v>
+        <v>0.1498293906624308</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04505299530072539</v>
+        <v>0.03162523910263867</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1993938398.671214</v>
+        <v>1853883764.592098</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07471624048448794</v>
+        <v>0.08856027975183647</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04094401510191122</v>
+        <v>0.04317025369401452</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2478832063.241634</v>
+        <v>3185807833.708952</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1278876178791966</v>
+        <v>0.1555615344661271</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04979691926892848</v>
+        <v>0.03752282180687756</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2172872763.439863</v>
+        <v>2671282197.654851</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1275752849663133</v>
+        <v>0.1453849216859105</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02573302471145447</v>
+        <v>0.0225553527797471</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1452859410.381845</v>
+        <v>1287578203.156978</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1815365989547</v>
+        <v>0.1710803710389674</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03328830637811327</v>
+        <v>0.04420067800379389</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2938089175.696779</v>
+        <v>2327430075.393364</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1499056166465347</v>
+        <v>0.1399614074117679</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02501860348615923</v>
+        <v>0.03177434915187997</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2402520710.184891</v>
+        <v>3022309620.220334</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1156499120838262</v>
+        <v>0.1316557803286687</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03968911156402723</v>
+        <v>0.03290562035589425</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1356851296.857406</v>
+        <v>1519007152.803423</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1275304529544444</v>
+        <v>0.1270896669173788</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04808110570478882</v>
+        <v>0.04838999738101847</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1532875422.316704</v>
+        <v>1689002597.843089</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1684860616301503</v>
+        <v>0.1527622846794336</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03783353634854817</v>
+        <v>0.05935108413847311</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2656492384.270003</v>
+        <v>2627072161.251835</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08773017726250328</v>
+        <v>0.06968850810626556</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04559186373780825</v>
+        <v>0.04584378845998169</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4222677789.44065</v>
+        <v>3216674384.872479</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1188986545408041</v>
+        <v>0.1078335949969273</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04125129764817108</v>
+        <v>0.04841785259789676</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1774256815.517668</v>
+        <v>2113326824.641801</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1128931729352075</v>
+        <v>0.1178978833043971</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03925205985009949</v>
+        <v>0.03115439159624762</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2117120735.183479</v>
+        <v>2855221859.082307</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09878696590730006</v>
+        <v>0.1064048682805833</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0461187277928734</v>
+        <v>0.0332208600986857</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1583958459.431354</v>
+        <v>2140605443.792115</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08608974066218199</v>
+        <v>0.1245774606872348</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04001909121921594</v>
+        <v>0.04398955694225815</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4502239547.22446</v>
+        <v>5177727192.503193</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1674456871276312</v>
+        <v>0.1557678000291096</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02255762381976242</v>
+        <v>0.01848038860233867</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2565254225.384413</v>
+        <v>2892408270.698304</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09452467444784489</v>
+        <v>0.1186848399938131</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02254049751451411</v>
+        <v>0.02505941895283066</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2491194594.53777</v>
+        <v>2940694833.723011</v>
       </c>
       <c r="F99" t="n">
-        <v>0.140799248405704</v>
+        <v>0.1067350198082685</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03523259977864564</v>
+        <v>0.03264628595134158</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4255293388.729351</v>
+        <v>3715684227.130363</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1730787529589154</v>
+        <v>0.116827830249665</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01999067908989116</v>
+        <v>0.02717840969982767</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2504949519.316844</v>
+        <v>3559943580.503202</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1990141888273416</v>
+        <v>0.2098743973114759</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05792000793798383</v>
+        <v>0.04122381108457705</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_127.xlsx
+++ b/output/fit_clients/fit_round_127.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2016880100.65397</v>
+        <v>1786702664.179061</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1019713985406197</v>
+        <v>0.1129812259128191</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04318402205086646</v>
+        <v>0.04345287824836799</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2261762888.20663</v>
+        <v>2594042099.803991</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1734781910881443</v>
+        <v>0.1138070616203058</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04999344474867457</v>
+        <v>0.04743520816949504</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4534283419.011607</v>
+        <v>4955183220.328421</v>
       </c>
       <c r="F4" t="n">
-        <v>0.118581714092612</v>
+        <v>0.1091857360151052</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0383771108487115</v>
+        <v>0.02903071438284786</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>76</v>
+      </c>
+      <c r="J4" t="n">
+        <v>126</v>
+      </c>
+      <c r="K4" t="n">
+        <v>146.4193895379745</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2962581540.273746</v>
+        <v>2831466303.318039</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1000789870125769</v>
+        <v>0.06723759841090735</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0418041189516559</v>
+        <v>0.04296692739618927</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>51</v>
+      </c>
+      <c r="J5" t="n">
+        <v>125</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1751674104.966542</v>
+        <v>2479496520.238003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09430425477943076</v>
+        <v>0.1242051949331431</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05352865082170532</v>
+        <v>0.04165440289461322</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2399691758.816064</v>
+        <v>2459257339.777764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06877359620756344</v>
+        <v>0.08965361040972482</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04689701411156093</v>
+        <v>0.04437555912684573</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3821688529.389897</v>
+        <v>2553169472.316681</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1959813047169542</v>
+        <v>0.1565291505507194</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02183737315796214</v>
+        <v>0.02921573265585723</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>125</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2004127467.727487</v>
+        <v>1892640402.098443</v>
       </c>
       <c r="F9" t="n">
-        <v>0.165469715800744</v>
+        <v>0.1319569245097237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03457498133348594</v>
+        <v>0.03271315848006113</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5618517798.829251</v>
+        <v>4854296824.385032</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1941712322543626</v>
+        <v>0.1924044749238952</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03984092359394779</v>
+        <v>0.04335086281981099</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>116</v>
+      </c>
+      <c r="J10" t="n">
+        <v>127</v>
+      </c>
+      <c r="K10" t="n">
+        <v>161.9462730241325</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2690595831.313702</v>
+        <v>3635199553.248837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1260236724519625</v>
+        <v>0.1548954111422723</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04213898511270634</v>
+        <v>0.0316831975914695</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>54</v>
+      </c>
+      <c r="J11" t="n">
+        <v>126</v>
+      </c>
+      <c r="K11" t="n">
+        <v>126.1020686888735</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3020482785.27835</v>
+        <v>2637723692.739129</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1502145347357248</v>
+        <v>0.1873850968540672</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0522094844238186</v>
+        <v>0.04001198024753348</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3675620830.92226</v>
+        <v>4932669080.978621</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09364097299768612</v>
+        <v>0.08355549412099726</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02726342749755831</v>
+        <v>0.02648906571148293</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>62</v>
+      </c>
+      <c r="J13" t="n">
+        <v>126</v>
+      </c>
+      <c r="K13" t="n">
+        <v>144.2779181727153</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2616278910.521001</v>
+        <v>2881131146.849998</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1388503102040356</v>
+        <v>0.1312465263742514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03176910017404622</v>
+        <v>0.04303560198682749</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>23</v>
+      </c>
+      <c r="J14" t="n">
+        <v>124</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1111575419.1651</v>
+        <v>1259664451.100752</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08108589350068994</v>
+        <v>0.1009467075897477</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03901530327536326</v>
+        <v>0.04575279123771481</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2889020342.839619</v>
+        <v>2164084817.077616</v>
       </c>
       <c r="F16" t="n">
-        <v>0.116007279539115</v>
+        <v>0.07471720110464525</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04081392884650085</v>
+        <v>0.05094470336273418</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3675259137.071118</v>
+        <v>3743246868.455328</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1439398478932676</v>
+        <v>0.1496505146195676</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03897985632103564</v>
+        <v>0.03934263015229933</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>61</v>
+      </c>
+      <c r="J17" t="n">
+        <v>127</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,16 +1069,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3832799115.309631</v>
+        <v>3446917016.837127</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1640826088967042</v>
+        <v>0.1533268272245024</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02603556841075129</v>
+        <v>0.0236560428464829</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34</v>
+      </c>
+      <c r="J18" t="n">
+        <v>126</v>
+      </c>
+      <c r="K18" t="n">
+        <v>100.8751261619551</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1280696828.7758</v>
+        <v>883495275.028473</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1168810253118012</v>
+        <v>0.1599912358010634</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02158654177381951</v>
+        <v>0.02328226811227059</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1858794279.392167</v>
+        <v>2727060558.129727</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1400126497605275</v>
+        <v>0.11091884536173</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02319930796612603</v>
+        <v>0.02445248648715893</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2562931702.03941</v>
+        <v>2319962948.318645</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09919074079404526</v>
+        <v>0.1019609859182159</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03733861613444037</v>
+        <v>0.03817752620003553</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3417585777.449852</v>
+        <v>2535422532.933136</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1259381913392715</v>
+        <v>0.1137319394110511</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05108816867587219</v>
+        <v>0.05296688060218573</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>33</v>
+      </c>
+      <c r="J22" t="n">
+        <v>123</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1114282183.242396</v>
+        <v>1156924452.737962</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1252339206392447</v>
+        <v>0.135638183911334</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04250438105577786</v>
+        <v>0.04454677078036756</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2543238919.222933</v>
+        <v>3928600669.367108</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1319524178775361</v>
+        <v>0.1457853183099455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03341919617324642</v>
+        <v>0.03071859868877746</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>37</v>
+      </c>
+      <c r="J24" t="n">
+        <v>127</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1194113497.036418</v>
+        <v>906891691.7663823</v>
       </c>
       <c r="F25" t="n">
-        <v>0.104959651386965</v>
+        <v>0.1056139460969127</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02869433166787855</v>
+        <v>0.02819392083996118</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1416878092.714812</v>
+        <v>1265465719.059991</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1119640549130538</v>
+        <v>0.1032777645094428</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03218685871606544</v>
+        <v>0.02501695276913074</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3354077567.074345</v>
+        <v>3023569608.900232</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1122958482221292</v>
+        <v>0.1276252022646528</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02667452346978164</v>
+        <v>0.022777047147863</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="n">
+        <v>125</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3595300757.97021</v>
+        <v>3809710304.358707</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09314343263183379</v>
+        <v>0.09288232935025388</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04280307707823996</v>
+        <v>0.04126192367200588</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>127</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5182763626.688967</v>
+        <v>3802165687.207718</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1058807995020328</v>
+        <v>0.1244468644531893</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03535428085504499</v>
+        <v>0.02901620233815696</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>117</v>
+      </c>
+      <c r="J29" t="n">
+        <v>127</v>
+      </c>
+      <c r="K29" t="n">
+        <v>150.8472474022646</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2257683333.35104</v>
+        <v>1831326132.94235</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09086385909683307</v>
+        <v>0.1381753900161213</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03739361688275414</v>
+        <v>0.03360342075062955</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1329030120.843416</v>
+        <v>1438909979.926745</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08992563101649985</v>
+        <v>0.08000068060498659</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04250332165455232</v>
+        <v>0.04211772104799975</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1383742793.515169</v>
+        <v>1648319340.579411</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09938507818968585</v>
+        <v>0.09000307971179508</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03291148952282587</v>
+        <v>0.03115478128888516</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2414102917.284461</v>
+        <v>2680875001.629789</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1398228335090984</v>
+        <v>0.1720994414878949</v>
       </c>
       <c r="G33" t="n">
-        <v>0.048139806147737</v>
+        <v>0.05009202080170871</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1086449507.648646</v>
+        <v>1443353795.614823</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09578963892873665</v>
+        <v>0.1106131061171955</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02196248288743322</v>
+        <v>0.02829885490999668</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1068454113.731138</v>
+        <v>1097482069.71077</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08966799374640283</v>
+        <v>0.09514543347067485</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04306355417361649</v>
+        <v>0.04127377884580613</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2179628422.877953</v>
+        <v>3042569085.2217</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1612921247209948</v>
+        <v>0.1365880726674685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02392074423997558</v>
+        <v>0.02290256196115931</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2660505371.892521</v>
+        <v>2515029652.855443</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1044965879026282</v>
+        <v>0.1030917894031259</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02866478605169018</v>
+        <v>0.03221084014245619</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1949053927.96306</v>
+        <v>1371762571.824184</v>
       </c>
       <c r="F38" t="n">
-        <v>0.100491297899361</v>
+        <v>0.09440365157750863</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02569122679561063</v>
+        <v>0.02710160614433697</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1810225204.74248</v>
+        <v>2206382160.915864</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1479347315440011</v>
+        <v>0.1210152235333882</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02563626390318028</v>
+        <v>0.02907511131320064</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1653099261.06534</v>
+        <v>1643507070.317484</v>
       </c>
       <c r="F40" t="n">
-        <v>0.123582627918427</v>
+        <v>0.1221450060341832</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05249244682120522</v>
+        <v>0.05830014568398698</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2872124099.715211</v>
+        <v>2669798508.454869</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1199057910621579</v>
+        <v>0.1241213124156267</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03141936742765666</v>
+        <v>0.03197544678394084</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3182828710.79181</v>
+        <v>3614788068.18066</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1249874445477083</v>
+        <v>0.1068918773322885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03348723922282813</v>
+        <v>0.04382493929187892</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>47</v>
+      </c>
+      <c r="J42" t="n">
+        <v>126</v>
+      </c>
+      <c r="K42" t="n">
+        <v>118.6019902293585</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2034858077.798133</v>
+        <v>3001243876.259575</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1931144741154858</v>
+        <v>0.1701885352236176</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02515573367224466</v>
+        <v>0.02529119060423416</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1656857737.931197</v>
+        <v>2047531616.334587</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08039886783852988</v>
+        <v>0.1001934919817364</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0254038454120278</v>
+        <v>0.02669469904445845</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2028448252.709497</v>
+        <v>1627169035.112007</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1174015072390109</v>
+        <v>0.1535389377259735</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05135383935076794</v>
+        <v>0.05242811421622993</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5269200487.700622</v>
+        <v>4803815997.437508</v>
       </c>
       <c r="F46" t="n">
-        <v>0.166941676056512</v>
+        <v>0.1575445809867474</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0577178720494007</v>
+        <v>0.05849084306798436</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>73</v>
+      </c>
+      <c r="J46" t="n">
+        <v>126</v>
+      </c>
+      <c r="K46" t="n">
+        <v>149.8067125508539</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4761808171.709687</v>
+        <v>4686032238.897126</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1621726388893851</v>
+        <v>0.1955264258913942</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04519880445550107</v>
+        <v>0.05133599577983222</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>56</v>
+      </c>
+      <c r="J47" t="n">
+        <v>127</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3205081694.199452</v>
+        <v>3573064893.513023</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07183988339703666</v>
+        <v>0.07598467292491326</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02922128197907767</v>
+        <v>0.03110064958652362</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>50</v>
+      </c>
+      <c r="J48" t="n">
+        <v>126</v>
+      </c>
+      <c r="K48" t="n">
+        <v>114.7889700496456</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1739904482.597931</v>
+        <v>1469275437.110909</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1939266953971753</v>
+        <v>0.1600656023217417</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03808249783071998</v>
+        <v>0.03506615243073419</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3323172492.213104</v>
+        <v>4037904708.428545</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1124701467413524</v>
+        <v>0.1320271907460293</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04757196474323585</v>
+        <v>0.0339022185265492</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>43</v>
+      </c>
+      <c r="J50" t="n">
+        <v>127</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>935545446.4983196</v>
+        <v>1214439540.89495</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1814167217302415</v>
+        <v>0.1383005095522959</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05085480474811151</v>
+        <v>0.04606754077530197</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4681893717.455069</v>
+        <v>4439715494.522875</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1161068783519003</v>
+        <v>0.0836708142343254</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0413010222968925</v>
+        <v>0.0480217920478278</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>97</v>
+      </c>
+      <c r="J52" t="n">
+        <v>127</v>
+      </c>
+      <c r="K52" t="n">
+        <v>152.3970023231418</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3479240452.744342</v>
+        <v>2942936145.642417</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1857018044396117</v>
+        <v>0.1927994728257408</v>
       </c>
       <c r="G53" t="n">
-        <v>0.022438715655414</v>
+        <v>0.02412977532835544</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>125</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3429758399.011909</v>
+        <v>3559688778.008767</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1329078706507124</v>
+        <v>0.1182078969531212</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03766413740798669</v>
+        <v>0.03510006134456812</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>58</v>
+      </c>
+      <c r="J54" t="n">
+        <v>126</v>
+      </c>
+      <c r="K54" t="n">
+        <v>113.3065530272868</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3973894432.682127</v>
+        <v>3883787933.212834</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2201886518088807</v>
+        <v>0.1558011460615956</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02168415006298079</v>
+        <v>0.0217094061179427</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>58</v>
+      </c>
+      <c r="J55" t="n">
+        <v>127</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1263912062.284558</v>
+        <v>1445357124.26491</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1085271051349456</v>
+        <v>0.1326309081270809</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04521619070383798</v>
+        <v>0.03986820918649408</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2442,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4301732566.49959</v>
+        <v>4036173211.019565</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1115351289560621</v>
+        <v>0.1568760775880087</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0227293477090792</v>
+        <v>0.02486868014199071</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>49</v>
+      </c>
+      <c r="J57" t="n">
+        <v>127</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636028718.702887</v>
+        <v>1481691084.036734</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1920231828617377</v>
+        <v>0.1718442777423023</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02760391305466312</v>
+        <v>0.03083001514544309</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4295419993.278196</v>
+        <v>4098357510.746964</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08130086502498726</v>
+        <v>0.0951380761354399</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03959885401277224</v>
+        <v>0.03195176301189528</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>62</v>
+      </c>
+      <c r="J59" t="n">
+        <v>126</v>
+      </c>
+      <c r="K59" t="n">
+        <v>138.0791634694964</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2657258504.566833</v>
+        <v>3527202204.067646</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1747880335502824</v>
+        <v>0.1690722548695751</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03054409998957233</v>
+        <v>0.02235635169572386</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19</v>
+      </c>
+      <c r="J60" t="n">
+        <v>127</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2323010728.608711</v>
+        <v>2543429143.578983</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1739092186321614</v>
+        <v>0.1700399820980499</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02935553709318765</v>
+        <v>0.03266244193427133</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>118</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1927662243.148015</v>
+        <v>1321977549.700709</v>
       </c>
       <c r="F62" t="n">
-        <v>0.151539671965791</v>
+        <v>0.1239881086726772</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04237276862626381</v>
+        <v>0.04493463126341697</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5162567630.763163</v>
+        <v>4668959716.104628</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07434341837892429</v>
+        <v>0.09009854091705993</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0314819687670347</v>
+        <v>0.03862319776208537</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>63</v>
+      </c>
+      <c r="J63" t="n">
+        <v>126</v>
+      </c>
+      <c r="K63" t="n">
+        <v>135.181345554559</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2697,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5421274979.651373</v>
+        <v>4140948140.098641</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1170950129939754</v>
+        <v>0.1895867903156848</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03564623644950261</v>
+        <v>0.02268693778968716</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>62</v>
+      </c>
+      <c r="J64" t="n">
+        <v>127</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4201878679.542616</v>
+        <v>3933397983.962289</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1185713259767656</v>
+        <v>0.1251443398894041</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02901401196166422</v>
+        <v>0.0274993279035863</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>106</v>
+      </c>
+      <c r="J65" t="n">
+        <v>126</v>
+      </c>
+      <c r="K65" t="n">
+        <v>139.648820191945</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3887614583.141942</v>
+        <v>4199067383.687634</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1410116839649608</v>
+        <v>0.1244389466031723</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05059620020107904</v>
+        <v>0.03239613980034124</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>62</v>
+      </c>
+      <c r="J66" t="n">
+        <v>127</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2887051014.890862</v>
+        <v>2721254455.72195</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07249328913971495</v>
+        <v>0.0871174352755177</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03958693396882096</v>
+        <v>0.04515094273984393</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5202420498.882445</v>
+        <v>4422658416.597897</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1172851790508967</v>
+        <v>0.153958901980925</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03175205466032227</v>
+        <v>0.04261664838141818</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>64</v>
+      </c>
+      <c r="J68" t="n">
+        <v>126</v>
+      </c>
+      <c r="K68" t="n">
+        <v>138.6781902618859</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2222236184.305295</v>
+        <v>1733576289.298362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1299234118188274</v>
+        <v>0.1397153447703122</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05247145220896723</v>
+        <v>0.05897917161994723</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3233030929.344126</v>
+        <v>2815200018.903646</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08653244249361346</v>
+        <v>0.07844374411730196</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04866768476559769</v>
+        <v>0.03054054421271826</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>15</v>
+      </c>
+      <c r="J70" t="n">
+        <v>125</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4921648430.470678</v>
+        <v>5257315961.291837</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1162909484210611</v>
+        <v>0.1608588309917427</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02915265301254774</v>
+        <v>0.03154655275335007</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>103</v>
+      </c>
+      <c r="J71" t="n">
+        <v>127</v>
+      </c>
+      <c r="K71" t="n">
+        <v>150.2642983384794</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2013989945.886972</v>
+        <v>1439630095.943769</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1031963949792399</v>
+        <v>0.07044354371292653</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04029387811332126</v>
+        <v>0.03295744280666676</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2180755433.640138</v>
+        <v>3103717235.094314</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09602268101428867</v>
+        <v>0.07875254562847492</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03740029586094498</v>
+        <v>0.03259283298981634</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>9</v>
+      </c>
+      <c r="J73" t="n">
+        <v>118</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2983866601.821468</v>
+        <v>3149839580.283335</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1682519206078314</v>
+        <v>0.1520056765332103</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02401834426592868</v>
+        <v>0.02665266807917525</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>42</v>
+      </c>
+      <c r="J74" t="n">
+        <v>123</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2055194053.800312</v>
+        <v>1546787149.447667</v>
       </c>
       <c r="F75" t="n">
-        <v>0.112764577522793</v>
+        <v>0.1012764025610875</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0307255056462027</v>
+        <v>0.03145406094218256</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3576755911.814331</v>
+        <v>4779841446.816925</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09657738837860691</v>
+        <v>0.1215586028297149</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02556698447991455</v>
+        <v>0.02265816186816049</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>59</v>
+      </c>
+      <c r="J76" t="n">
+        <v>126</v>
+      </c>
+      <c r="K76" t="n">
+        <v>120.1910094711084</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1696980277.935922</v>
+        <v>1694567344.105805</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1819152753999053</v>
+        <v>0.1332336139413658</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02943248580011823</v>
+        <v>0.02444119131402945</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4367446653.615292</v>
+        <v>4790112567.800739</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1131906883882946</v>
+        <v>0.08820457924736146</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04883490742634894</v>
+        <v>0.05392479501226411</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>62</v>
+      </c>
+      <c r="J78" t="n">
+        <v>127</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1697242544.825504</v>
+        <v>1291628626.390818</v>
       </c>
       <c r="F79" t="n">
-        <v>0.145616501580973</v>
+        <v>0.1653637036183615</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02955254955389785</v>
+        <v>0.02966990965330555</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4444332315.981649</v>
+        <v>4495440902.536159</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07506835541371841</v>
+        <v>0.1117556415006449</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02351247937646699</v>
+        <v>0.03185111669681129</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>61</v>
+      </c>
+      <c r="J80" t="n">
+        <v>127</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4868403588.912944</v>
+        <v>3236199110.725163</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1289685029434492</v>
+        <v>0.1144655061450901</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03310611226444284</v>
+        <v>0.02873275154244156</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>57</v>
+      </c>
+      <c r="J81" t="n">
+        <v>127</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5683669110.245531</v>
+        <v>5560163844.823179</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1651693092893891</v>
+        <v>0.1964630884204822</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02351148870162257</v>
+        <v>0.02903617826957688</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>88</v>
+      </c>
+      <c r="J82" t="n">
+        <v>127</v>
+      </c>
+      <c r="K82" t="n">
+        <v>158.4708972597358</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2416293621.280412</v>
+        <v>1997064520.657589</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1498293906624308</v>
+        <v>0.1019451579804708</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03162523910263867</v>
+        <v>0.03544411205913992</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1853883764.592098</v>
+        <v>1579449983.242501</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08856027975183647</v>
+        <v>0.1183821506390353</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04317025369401452</v>
+        <v>0.04968325018913895</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3185807833.708952</v>
+        <v>3118324589.842227</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1555615344661271</v>
+        <v>0.1300470319411266</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03752282180687756</v>
+        <v>0.04860206358520642</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>19</v>
+      </c>
+      <c r="J85" t="n">
+        <v>106</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2671282197.654851</v>
+        <v>1771977896.781092</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1453849216859105</v>
+        <v>0.1397698523564347</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0225553527797471</v>
+        <v>0.0206001119686379</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1287578203.156978</v>
+        <v>1202139735.734968</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1710803710389674</v>
+        <v>0.1262606544586219</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04420067800379389</v>
+        <v>0.03326267352456028</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2327430075.393364</v>
+        <v>2376822512.096135</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1399614074117679</v>
+        <v>0.1598660356296577</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03177434915187997</v>
+        <v>0.02714522062492413</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>122</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3022309620.220334</v>
+        <v>2475935093.486134</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1316557803286687</v>
+        <v>0.1551804067332142</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03290562035589425</v>
+        <v>0.02996356858014794</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>124</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1519007152.803423</v>
+        <v>1976160007.021649</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1270896669173788</v>
+        <v>0.1362350764537021</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04838999738101847</v>
+        <v>0.03463702653767241</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1689002597.843089</v>
+        <v>1948345814.136342</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1527622846794336</v>
+        <v>0.1295096791752585</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05935108413847311</v>
+        <v>0.04174322535426333</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2627072161.251835</v>
+        <v>2003683082.693986</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06968850810626556</v>
+        <v>0.07981846157275241</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04584378845998169</v>
+        <v>0.03315588486846464</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3722,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3216674384.872479</v>
+        <v>3667243954.588025</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1078335949969273</v>
+        <v>0.100297070214329</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04841785259789676</v>
+        <v>0.04787723638098029</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>57</v>
+      </c>
+      <c r="J93" t="n">
+        <v>127</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2113326824.641801</v>
+        <v>1999481503.861787</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1178978833043971</v>
+        <v>0.1030861595000428</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03115439159624762</v>
+        <v>0.04133624393755142</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2855221859.082307</v>
+        <v>3162912011.661262</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1064048682805833</v>
+        <v>0.1377145172301996</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0332208600986857</v>
+        <v>0.0376257580273139</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2140605443.792115</v>
+        <v>1730414731.957659</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1245774606872348</v>
+        <v>0.117418912405875</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04398955694225815</v>
+        <v>0.04700798834709246</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5177727192.503193</v>
+        <v>3322550831.866212</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1557678000291096</v>
+        <v>0.1473772912195601</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01848038860233867</v>
+        <v>0.02570713769779555</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>61</v>
+      </c>
+      <c r="J97" t="n">
+        <v>126</v>
+      </c>
+      <c r="K97" t="n">
+        <v>96.20859856309423</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2892408270.698304</v>
+        <v>2808225803.408236</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1186848399938131</v>
+        <v>0.1253403370130651</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02505941895283066</v>
+        <v>0.02982289557736104</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>30</v>
+      </c>
+      <c r="J98" t="n">
+        <v>126</v>
+      </c>
+      <c r="K98" t="n">
+        <v>61.2347363932074</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2940694833.723011</v>
+        <v>2878837964.607099</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1067350198082685</v>
+        <v>0.1380257461294662</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03264628595134158</v>
+        <v>0.02342025696640011</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3715684227.130363</v>
+        <v>3110895651.474959</v>
       </c>
       <c r="F100" t="n">
-        <v>0.116827830249665</v>
+        <v>0.1304978472281287</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02717840969982767</v>
+        <v>0.02573737110629535</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>52</v>
+      </c>
+      <c r="J100" t="n">
+        <v>125</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3559943580.503202</v>
+        <v>2286255536.02598</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2098743973114759</v>
+        <v>0.2187819941123143</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04122381108457705</v>
+        <v>0.04821909545583412</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>119</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
